--- a/Test Data/TC_134_Verify_IB_Units_On_Assigning_Base_And_Additional_Base.xlsx
+++ b/Test Data/TC_134_Verify_IB_Units_On_Assigning_Base_And_Additional_Base.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdhakaa\Documents\NG Consys Project\Testing\NGConsys Automation\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831CFF9F-A663-4BC5-B3DD-87FBE08C3D86}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices Loop A" sheetId="6" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="8" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="44">
   <si>
     <t>Device</t>
   </si>
@@ -161,12 +160,15 @@
   </si>
   <si>
     <t>To verify IB units value</t>
+  </si>
+  <si>
+    <t>IBUnitsLoadingDetail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -223,7 +225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -283,11 +285,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -321,6 +334,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,11 +614,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I9" sqref="I9:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -617,9 +631,10 @@
     <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
@@ -627,7 +642,7 @@
       <c r="C1" s="15"/>
       <c r="D1" s="16"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
@@ -640,7 +655,7 @@
       <c r="D2" s="12"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
@@ -653,7 +668,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
@@ -668,7 +683,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
       <c r="D5" s="10" t="s">
         <v>15</v>
@@ -677,11 +692,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
@@ -706,8 +721,11 @@
       <c r="H7" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
@@ -732,8 +750,11 @@
       <c r="H8" s="3">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>2</v>
       </c>
@@ -758,8 +779,11 @@
       <c r="H9" s="3">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
@@ -783,6 +807,9 @@
       </c>
       <c r="H10" s="3">
         <v>11.8</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -795,7 +822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0BBD498-A94B-42E1-9A81-1E4395982E0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1077,5 +1104,6 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test Data/TC_134_Verify_IB_Units_On_Assigning_Base_And_Additional_Base.xlsx
+++ b/Test Data/TC_134_Verify_IB_Units_On_Assigning_Base_And_Additional_Base.xlsx
@@ -325,6 +325,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -334,7 +335,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,12 +635,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -721,7 +721,7 @@
       <c r="H7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="14" t="s">
         <v>43</v>
       </c>
     </row>
@@ -751,7 +751,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -780,7 +780,7 @@
         <v>7.7</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -809,7 +809,7 @@
         <v>11.8</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -842,12 +842,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">

--- a/Test Data/TC_134_Verify_IB_Units_On_Assigning_Base_And_Additional_Base.xlsx
+++ b/Test Data/TC_134_Verify_IB_Units_On_Assigning_Base_And_Additional_Base.xlsx
@@ -325,7 +325,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -335,6 +334,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,12 +635,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -721,7 +721,7 @@
       <c r="H7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="17" t="s">
         <v>43</v>
       </c>
     </row>
@@ -751,7 +751,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -780,7 +780,7 @@
         <v>7.7</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -809,7 +809,7 @@
         <v>11.8</v>
       </c>
       <c r="I10" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -842,12 +842,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">

--- a/Test Data/TC_134_Verify_IB_Units_On_Assigning_Base_And_Additional_Base.xlsx
+++ b/Test Data/TC_134_Verify_IB_Units_On_Assigning_Base_And_Additional_Base.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -325,6 +325,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -334,7 +335,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,7 +618,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:I10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -635,12 +635,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -721,7 +721,7 @@
       <c r="H7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="14" t="s">
         <v>43</v>
       </c>
     </row>
@@ -745,7 +745,7 @@
         <v>24</v>
       </c>
       <c r="G8" s="7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H8" s="3">
         <v>5.0999999999999996</v>
@@ -803,7 +803,7 @@
         <v>24</v>
       </c>
       <c r="G10" s="7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H10" s="3">
         <v>11.8</v>
@@ -842,12 +842,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">

--- a/Test Data/TC_134_Verify_IB_Units_On_Assigning_Base_And_Additional_Base.xlsx
+++ b/Test Data/TC_134_Verify_IB_Units_On_Assigning_Base_And_Additional_Base.xlsx
@@ -30,8 +30,114 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Alpesh Dhakad</author>
+  </authors>
+  <commentList>
+    <comment ref="D8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Alpesh Dhakad:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+801SB [516.800.907] @ 90dB</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Alpesh Dhakad:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+801RB [516.800.905]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Alpesh Dhakad:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+801RB [516.800.905]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Alpesh Dhakad:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+801RB [516.800.905]</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="46">
   <si>
     <t>Device</t>
   </si>
@@ -163,13 +269,19 @@
   </si>
   <si>
     <t>IBUnitsLoadingDetail</t>
+  </si>
+  <si>
+    <t>Additonal Base Row</t>
+  </si>
+  <si>
+    <t>Assign Base/Default Base Row</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +303,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -225,7 +350,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -285,22 +410,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -325,7 +439,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -614,11 +727,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I8" sqref="I8:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -635,12 +748,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -707,13 +820,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>28</v>
@@ -721,7 +834,7 @@
       <c r="H7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -735,14 +848,14 @@
       <c r="C8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>26</v>
+      <c r="D8" s="7">
+        <v>17</v>
       </c>
       <c r="E8" s="7">
-        <v>13</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>6</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
       </c>
       <c r="G8" s="7">
         <v>6</v>
@@ -750,7 +863,7 @@
       <c r="H8" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -764,11 +877,11 @@
       <c r="C9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>24</v>
+      <c r="D9" s="7">
+        <v>39</v>
       </c>
       <c r="E9" s="7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>3</v>
@@ -779,7 +892,7 @@
       <c r="H9" s="3">
         <v>7.7</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -797,10 +910,10 @@
         <v>3</v>
       </c>
       <c r="E10" s="7">
-        <v>13</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>24</v>
+        <v>6</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
       </c>
       <c r="G10" s="7">
         <v>6</v>
@@ -808,7 +921,7 @@
       <c r="H10" s="3">
         <v>11.8</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -818,6 +931,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -842,12 +956,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
